--- a/public/report/Report_202353.xlsx
+++ b/public/report/Report_202353.xlsx
@@ -103,10 +103,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0</v>
